--- a/APPSHEET/EXCEL/habitacion_estado_melos1.xlsx
+++ b/APPSHEET/EXCEL/habitacion_estado_melos1.xlsx
@@ -188,7 +188,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">3</t>
           </r>
         </is>
       </c>
@@ -253,7 +253,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -318,7 +318,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">5</t>
           </r>
         </is>
       </c>
@@ -383,7 +383,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4</t>
+            <t xml:space="preserve">6</t>
           </r>
         </is>
       </c>
@@ -448,7 +448,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5</t>
+            <t xml:space="preserve">7</t>
           </r>
         </is>
       </c>
@@ -513,7 +513,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6</t>
+            <t xml:space="preserve">8</t>
           </r>
         </is>
       </c>
@@ -578,7 +578,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7</t>
+            <t xml:space="preserve">27</t>
           </r>
         </is>
       </c>
@@ -587,7 +587,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7</t>
+            <t xml:space="preserve">16</t>
           </r>
         </is>
       </c>
@@ -605,7 +605,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUCIO</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -614,7 +614,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">00:20:36</t>
+            <t xml:space="preserve">.</t>
           </r>
         </is>
       </c>
@@ -632,7 +632,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/34NORMAL.nombre_imagen.053800.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
@@ -643,7 +643,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8</t>
+            <t xml:space="preserve">17</t>
           </r>
         </is>
       </c>
@@ -652,7 +652,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8</t>
+            <t xml:space="preserve">17</t>
           </r>
         </is>
       </c>
@@ -708,7 +708,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">9</t>
+            <t xml:space="preserve">18</t>
           </r>
         </is>
       </c>
@@ -717,7 +717,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">9</t>
+            <t xml:space="preserve">18</t>
           </r>
         </is>
       </c>
@@ -773,7 +773,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10</t>
+            <t xml:space="preserve">19</t>
           </r>
         </is>
       </c>
@@ -782,7 +782,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10</t>
+            <t xml:space="preserve">19</t>
           </r>
         </is>
       </c>
@@ -838,7 +838,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">11</t>
+            <t xml:space="preserve">20</t>
           </r>
         </is>
       </c>
@@ -847,7 +847,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">11</t>
+            <t xml:space="preserve">20</t>
           </r>
         </is>
       </c>
@@ -903,7 +903,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">12</t>
+            <t xml:space="preserve">21</t>
           </r>
         </is>
       </c>
@@ -912,7 +912,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">12</t>
+            <t xml:space="preserve">21</t>
           </r>
         </is>
       </c>
@@ -968,7 +968,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13</t>
+            <t xml:space="preserve">22</t>
           </r>
         </is>
       </c>
@@ -977,7 +977,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13</t>
+            <t xml:space="preserve">22</t>
           </r>
         </is>
       </c>
@@ -1033,7 +1033,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">14</t>
+            <t xml:space="preserve">13</t>
           </r>
         </is>
       </c>
@@ -1042,7 +1042,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">14</t>
+            <t xml:space="preserve">11</t>
           </r>
         </is>
       </c>
@@ -1051,7 +1051,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NORMAL</t>
+            <t xml:space="preserve">MOTO</t>
           </r>
         </is>
       </c>
@@ -1098,7 +1098,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15</t>
+            <t xml:space="preserve">14</t>
           </r>
         </is>
       </c>
@@ -1107,7 +1107,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15</t>
+            <t xml:space="preserve">12</t>
           </r>
         </is>
       </c>
@@ -1116,7 +1116,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NORMAL</t>
+            <t xml:space="preserve">MOTO</t>
           </r>
         </is>
       </c>
@@ -1163,7 +1163,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">16</t>
+            <t xml:space="preserve">15</t>
           </r>
         </is>
       </c>
@@ -1172,7 +1172,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">16</t>
+            <t xml:space="preserve">13</t>
           </r>
         </is>
       </c>
@@ -1181,7 +1181,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NORMAL</t>
+            <t xml:space="preserve">MOTO</t>
           </r>
         </is>
       </c>
@@ -1228,7 +1228,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">17</t>
+            <t xml:space="preserve">23</t>
           </r>
         </is>
       </c>
@@ -1237,7 +1237,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">17</t>
+            <t xml:space="preserve">26</t>
           </r>
         </is>
       </c>
@@ -1246,7 +1246,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUIT</t>
+            <t xml:space="preserve">MOTO</t>
           </r>
         </is>
       </c>
@@ -1293,7 +1293,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">18</t>
+            <t xml:space="preserve">24</t>
           </r>
         </is>
       </c>
@@ -1302,7 +1302,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">18</t>
+            <t xml:space="preserve">27</t>
           </r>
         </is>
       </c>
@@ -1311,7 +1311,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUIT</t>
+            <t xml:space="preserve">MOTO</t>
           </r>
         </is>
       </c>
@@ -1358,7 +1358,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">19</t>
+            <t xml:space="preserve">25</t>
           </r>
         </is>
       </c>
@@ -1367,7 +1367,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">19</t>
+            <t xml:space="preserve">28</t>
           </r>
         </is>
       </c>
@@ -1376,7 +1376,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUIT</t>
+            <t xml:space="preserve">MOTO</t>
           </r>
         </is>
       </c>
@@ -1423,7 +1423,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">20</t>
+            <t xml:space="preserve">26</t>
           </r>
         </is>
       </c>
@@ -1432,7 +1432,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">20</t>
+            <t xml:space="preserve">29</t>
           </r>
         </is>
       </c>
@@ -1441,7 +1441,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUIT</t>
+            <t xml:space="preserve">MOTO</t>
           </r>
         </is>
       </c>
@@ -1488,7 +1488,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21</t>
+            <t xml:space="preserve">12</t>
           </r>
         </is>
       </c>
@@ -1497,7 +1497,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -1553,7 +1553,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">22</t>
+            <t xml:space="preserve">11</t>
           </r>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">22</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
@@ -1571,7 +1571,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NORMAL</t>
+            <t xml:space="preserve">SUIT</t>
           </r>
         </is>
       </c>
@@ -1618,7 +1618,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">23</t>
+            <t xml:space="preserve">10</t>
           </r>
         </is>
       </c>
@@ -1627,7 +1627,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">23</t>
+            <t xml:space="preserve">3</t>
           </r>
         </is>
       </c>
@@ -1636,7 +1636,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NORMAL</t>
+            <t xml:space="preserve">SUIT</t>
           </r>
         </is>
       </c>
@@ -1683,7 +1683,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">24</t>
+            <t xml:space="preserve">9</t>
           </r>
         </is>
       </c>
@@ -1692,7 +1692,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">24</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -1701,7 +1701,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NORMAL</t>
+            <t xml:space="preserve">SUIT</t>
           </r>
         </is>
       </c>
@@ -1748,7 +1748,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">25</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
@@ -1757,7 +1757,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">25</t>
+            <t xml:space="preserve">5</t>
           </r>
         </is>
       </c>
@@ -1766,7 +1766,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NORMAL</t>
+            <t xml:space="preserve">SUIT</t>
           </r>
         </is>
       </c>
@@ -1813,7 +1813,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">26</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -1822,7 +1822,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">26</t>
+            <t xml:space="preserve">6</t>
           </r>
         </is>
       </c>
@@ -1831,7 +1831,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">NORMAL</t>
+            <t xml:space="preserve">SUIT</t>
           </r>
         </is>
       </c>
@@ -1872,14 +1872,79 @@
         </is>
       </c>
     </row>
-    <row r="28" customHeight="1" ht="575">
-      <c r="A28" s="2" t="inlineStr"/>
-      <c r="B28" s="2" t="inlineStr"/>
-      <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="2" t="inlineStr"/>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
+    <row r="28" customHeight="1" ht="20">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">16</t>
+          </r>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7</t>
+          </r>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SUIT</t>
+          </r>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">LIBRE</t>
+          </r>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">.</t>
+          </r>
+        </is>
+      </c>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="29" customHeight="1" ht="575">
+      <c r="A29" s="2" t="inlineStr"/>
+      <c r="B29" s="2" t="inlineStr"/>
+      <c r="C29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
